--- a/document/기술사양.xlsx
+++ b/document/기술사양.xlsx
@@ -136,10 +136,6 @@
     <t>웹 크롤링</t>
   </si>
   <si>
-    <t>HTML
-CSS 선택자</t>
-  </si>
-  <si>
     <t>requests
 urllib
 beautifulsoup
@@ -244,6 +240,12 @@
   </si>
   <si>
     <t>tableau 활용 데이터 시각화</t>
+  </si>
+  <si>
+    <t>HTML
+CSS 선택자
+Open API 활용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,15 +615,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="31.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
     <col min="7" max="7" width="7.875" customWidth="1"/>
@@ -670,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="30" customHeight="1">
+    <row r="5" spans="3:8" ht="33">
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -682,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="16.5" customHeight="1">
+    <row r="6" spans="3:8" ht="66">
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="s">
         <v>14</v>
@@ -691,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="16.5" customHeight="1">
+    <row r="7" spans="3:8" ht="33">
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -700,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="30" customHeight="1">
+    <row r="8" spans="3:8" ht="16.5">
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -743,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="30" customHeight="1">
+    <row r="14" spans="3:8" ht="27" customHeight="1">
       <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
@@ -757,7 +759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="16.5" customHeight="1">
+    <row r="15" spans="3:8" ht="33">
       <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -769,117 +771,117 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="16.5" customHeight="1">
+    <row r="16" spans="3:8" ht="66">
       <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row r="17" spans="3:6" ht="66">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="18" spans="3:6" ht="82.5">
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="16.5" customHeight="1">
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="20" spans="3:6" ht="49.5">
       <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="4" t="s">
+    </row>
+    <row r="21" spans="3:6" ht="66">
+      <c r="C21" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="22" spans="3:6" ht="66">
       <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="4" t="s">
+    </row>
+    <row r="23" spans="3:6" ht="49.5">
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="16.5" customHeight="1">
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="30" customHeight="1">
       <c r="C24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>19</v>

--- a/document/기술사양.xlsx
+++ b/document/기술사양.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/document/기술사양.xlsx
+++ b/document/기술사양.xlsx
@@ -125,10 +125,6 @@
     <t>데이터베이스 활용</t>
   </si>
   <si>
-    <t>관계형 데이터 모델링
-SQL 기본 및 활용</t>
-  </si>
-  <si>
     <t>oracledb
 cx_oracle</t>
   </si>
@@ -245,6 +241,12 @@
     <t>HTML
 CSS 선택자
 Open API 활용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계형 데이터 모델링
+SQL 기본 및 활용
+(DQL, DML, DDL, DCL, TCL)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -759,129 +761,129 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="33">
+    <row r="15" spans="3:8" ht="65.25" customHeight="1">
       <c r="C15" s="9"/>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="66">
       <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="66">
       <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="82.5">
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="16.5" customHeight="1">
+    </row>
+    <row r="19" spans="3:6" ht="33">
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="49.5">
       <c r="C20" s="10"/>
       <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="66">
       <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="66">
       <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="49.5">
       <c r="C23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="30" customHeight="1">
       <c r="C24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>19</v>
